--- a/DRS_ArXiv_data/DRS_leden.xlsx
+++ b/DRS_ArXiv_data/DRS_leden.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BeSe1936\Documents\DRS_arxiv\DRS_ArXiv_shiny\DRS_ArXiv\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BeSe1936\Documents\DRS_arxiv\DRS_ArXiv_shiny2\DRS_ArXiv\DRS_ArXiv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Naam</t>
   </si>
@@ -99,6 +99,51 @@
   </si>
   <si>
     <t>Habay</t>
+  </si>
+  <si>
+    <t>Wim</t>
+  </si>
+  <si>
+    <t>Leerman</t>
+  </si>
+  <si>
+    <t>Maarten</t>
+  </si>
+  <si>
+    <t>Verpoest</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>Van Vlasselaer</t>
+  </si>
+  <si>
+    <t>Arnaud</t>
+  </si>
+  <si>
+    <t>Jacquet</t>
+  </si>
+  <si>
+    <t>Els</t>
+  </si>
+  <si>
+    <t>Denorme</t>
+  </si>
+  <si>
+    <t>Wuijts</t>
+  </si>
+  <si>
+    <t>Philip</t>
+  </si>
+  <si>
+    <t>Vermeylen</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Van Iseghem</t>
   </si>
 </sst>
 </file>
@@ -429,7 +474,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,9 +560,7 @@
       <c r="D4">
         <v>2020</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2">
         <v>0</v>
       </c>
@@ -535,9 +578,7 @@
       <c r="D5">
         <v>2017</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2">
         <v>0</v>
       </c>
@@ -546,12 +587,40 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>2010</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>2013</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -596,34 +665,111 @@
         <v>2021</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
       <c r="G10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>2012</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>2010</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>1997</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
